--- a/outputs-HGR-r202-archive/p__Firmicutes_C.xlsx
+++ b/outputs-HGR-r202-archive/p__Firmicutes_C.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D429"/>
+  <dimension ref="A1:D323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,11 +519,11 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT10398.fa</t>
+          <t>even_MAG-GUT1049.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76992.49543020684</v>
+        <v>87288.70509858614</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -539,11 +539,11 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1049.fa</t>
+          <t>even_MAG-GUT1050.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87288.70509858614</v>
+        <v>80574.67755695696</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -559,11 +559,11 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1050.fa</t>
+          <t>even_MAG-GUT10593.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80574.67755695696</v>
+        <v>92805.52427750212</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -579,11 +579,11 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT10593.fa</t>
+          <t>even_MAG-GUT11020.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92805.52427750212</v>
+        <v>81429.30232069929</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -599,11 +599,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT10625.fa</t>
+          <t>even_MAG-GUT11435.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45444.47323965353</v>
+        <v>44149.24316769466</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -619,11 +619,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11020.fa</t>
+          <t>even_MAG-GUT1198.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81429.30232069929</v>
+        <v>84101.87513464371</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -639,11 +639,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11210.fa</t>
+          <t>even_MAG-GUT1206.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93087.10250324276</v>
+        <v>75108.20022354762</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -659,11 +659,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11332.fa</t>
+          <t>even_MAG-GUT1212.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>74961.51844755662</v>
+        <v>75108.20022354762</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -679,11 +679,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11435.fa</t>
+          <t>even_MAG-GUT1227.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44149.24316769466</v>
+        <v>75108.20022354762</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -699,11 +699,11 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1198.fa</t>
+          <t>even_MAG-GUT1232.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>84101.87513464371</v>
+        <v>79776.20623742951</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -719,11 +719,11 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1206.fa</t>
+          <t>even_MAG-GUT13227.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>75108.20022354762</v>
+        <v>41607.46667613028</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -739,11 +739,11 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1212.fa</t>
+          <t>even_MAG-GUT13322.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>75108.20022354762</v>
+        <v>86962.33864522634</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -759,11 +759,11 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1217.fa</t>
+          <t>even_MAG-GUT13342.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>48046.82234901508</v>
+        <v>49327.50061177563</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -779,11 +779,11 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1227.fa</t>
+          <t>even_MAG-GUT1355.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>75108.20022354762</v>
+        <v>79484.20221334478</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -799,11 +799,11 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1232.fa</t>
+          <t>even_MAG-GUT13749.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>79776.20623742951</v>
+        <v>41162.66294533045</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -819,11 +819,11 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13045.fa</t>
+          <t>even_MAG-GUT13830.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>62837.86426271884</v>
+        <v>77996.00481220211</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -839,11 +839,11 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13049.fa</t>
+          <t>even_MAG-GUT13999.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>79355.76137358771</v>
+        <v>69999.93685702908</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -859,11 +859,11 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13227.fa</t>
+          <t>even_MAG-GUT14159.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41607.46667613028</v>
+        <v>85711.90063623409</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13322.fa</t>
+          <t>even_MAG-GUT1470.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>86962.33864522634</v>
+        <v>92086.50388801047</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -899,11 +899,11 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13342.fa</t>
+          <t>even_MAG-GUT15061.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>49327.50061177563</v>
+        <v>42638.32063944715</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -919,11 +919,11 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1355.fa</t>
+          <t>even_MAG-GUT15089.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>79484.20221334478</v>
+        <v>41462.02928922682</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -939,11 +939,11 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13749.fa</t>
+          <t>even_MAG-GUT15427.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41162.66294533045</v>
+        <v>41780.0440034333</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -959,11 +959,11 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13830.fa</t>
+          <t>even_MAG-GUT1556.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>77996.00481220211</v>
+        <v>80362.98296148285</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -979,11 +979,11 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13999.fa</t>
+          <t>even_MAG-GUT1559.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>69999.93685702908</v>
+        <v>82046.8914475049</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -999,11 +999,11 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14159.fa</t>
+          <t>even_MAG-GUT15797.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>85711.90063623409</v>
+        <v>80917.95828185078</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1019,11 +1019,11 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1470.fa</t>
+          <t>even_MAG-GUT16129.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>92086.50388801047</v>
+        <v>36224.63196690475</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1039,11 +1039,11 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14741.fa</t>
+          <t>even_MAG-GUT16712.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>62837.86426271884</v>
+        <v>62285.13738337821</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1059,11 +1059,11 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15061.fa</t>
+          <t>even_MAG-GUT17170.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42638.32063944715</v>
+        <v>87848.70543396407</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1079,11 +1079,11 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15089.fa</t>
+          <t>even_MAG-GUT17254.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>41462.02928922682</v>
+        <v>44974.53505795026</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1099,11 +1099,11 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15427.fa</t>
+          <t>even_MAG-GUT17255.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41780.0440034333</v>
+        <v>83801.32917800774</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1119,11 +1119,11 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1556.fa</t>
+          <t>even_MAG-GUT17401.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>80362.98296148285</v>
+        <v>39011.77194312039</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1139,11 +1139,11 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1559.fa</t>
+          <t>even_MAG-GUT17664.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>82046.8914475049</v>
+        <v>74924.29023248445</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1159,11 +1159,11 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15742.fa</t>
+          <t>even_MAG-GUT17671.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50511.80873543517</v>
+        <v>98831.91645859249</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1179,11 +1179,11 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15797.fa</t>
+          <t>even_MAG-GUT18233.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80917.95828185078</v>
+        <v>48346.83931454252</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1199,11 +1199,11 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1584.fa</t>
+          <t>even_MAG-GUT1840.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>56670.75383407218</v>
+        <v>93064.06210785994</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1219,11 +1219,11 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16129.fa</t>
+          <t>even_MAG-GUT18785.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>36224.63196690475</v>
+        <v>45099.51596278012</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16712.fa</t>
+          <t>even_MAG-GUT18897.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>62285.13738337821</v>
+        <v>47096.84008748906</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1259,11 +1259,11 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1677.fa</t>
+          <t>even_MAG-GUT18970.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>62326.98817688429</v>
+        <v>43619.69969778511</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1279,11 +1279,11 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17170.fa</t>
+          <t>even_MAG-GUT1930.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87848.70543396407</v>
+        <v>79295.40720380931</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1299,11 +1299,11 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17254.fa</t>
+          <t>even_MAG-GUT19307.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>44974.53505795026</v>
+        <v>41108.6059990865</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1319,11 +1319,11 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17255.fa</t>
+          <t>even_MAG-GUT19429.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>83801.32917800774</v>
+        <v>43735.62081324079</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1339,11 +1339,11 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17401.fa</t>
+          <t>even_MAG-GUT1954.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>39011.77194312039</v>
+        <v>73753.2723042084</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1359,11 +1359,11 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17473.fa</t>
+          <t>even_MAG-GUT19990.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>76338.75045181358</v>
+        <v>48863.66001894219</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1379,11 +1379,11 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17515.fa</t>
+          <t>even_MAG-GUT20294.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>73051.97624670134</v>
+        <v>41815.30081656241</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1399,11 +1399,11 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17664.fa</t>
+          <t>even_MAG-GUT2031.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>74924.29023248445</v>
+        <v>84700.48215487108</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1419,11 +1419,11 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17671.fa</t>
+          <t>even_MAG-GUT20416.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>98831.91645859249</v>
+        <v>40919.80041307554</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1439,11 +1439,11 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18233.fa</t>
+          <t>even_MAG-GUT2053.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>48346.83931454252</v>
+        <v>67904.88179880982</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1459,11 +1459,11 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1840.fa</t>
+          <t>even_MAG-GUT2061.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>93064.06210785994</v>
+        <v>63202.80116751679</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1479,11 +1479,11 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18785.fa</t>
+          <t>even_MAG-GUT2081.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>45099.51596278012</v>
+        <v>74444.41489704199</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1499,11 +1499,11 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18897.fa</t>
+          <t>even_MAG-GUT2086.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>47096.84008748906</v>
+        <v>80531.39698930745</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1519,11 +1519,11 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18970.fa</t>
+          <t>even_MAG-GUT21102.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>43619.69969778511</v>
+        <v>51363.70000154385</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1539,11 +1539,11 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1930.fa</t>
+          <t>even_MAG-GUT21682.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>79295.40720380931</v>
+        <v>71608.30850705729</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1559,11 +1559,11 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19307.fa</t>
+          <t>even_MAG-GUT23387.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>41108.6059990865</v>
+        <v>29165.91818669276</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1579,11 +1579,11 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19429.fa</t>
+          <t>even_MAG-GUT23746.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>43735.62081324079</v>
+        <v>88366.93080716705</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1954.fa</t>
+          <t>even_MAG-GUT23754.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>73753.2723042084</v>
+        <v>49152.30952732172</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1619,11 +1619,11 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19990.fa</t>
+          <t>even_MAG-GUT24052.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>48863.66001894219</v>
+        <v>70217.89225080935</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1639,11 +1639,11 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20287.fa</t>
+          <t>even_MAG-GUT24126.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>76536.42176336395</v>
+        <v>46581.97400453835</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1659,11 +1659,11 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20294.fa</t>
+          <t>even_MAG-GUT24765.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>41815.30081656241</v>
+        <v>64486.21271520943</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1679,11 +1679,11 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2031.fa</t>
+          <t>even_MAG-GUT25590.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>84700.48215487108</v>
+        <v>59156.93358017479</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1699,11 +1699,11 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20416.fa</t>
+          <t>even_MAG-GUT29587.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>40919.80041307554</v>
+        <v>35826.46513728703</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1719,11 +1719,11 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2053.fa</t>
+          <t>even_MAG-GUT29781.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>67904.88179880982</v>
+        <v>61432.99003866015</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1739,11 +1739,11 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20540.fa</t>
+          <t>even_MAG-GUT29856.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>61639.6233767403</v>
+        <v>50172.62772212199</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1759,11 +1759,11 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20603.fa</t>
+          <t>even_MAG-GUT30091.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>67211.85754720801</v>
+        <v>83116.92306584152</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1779,11 +1779,11 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2061.fa</t>
+          <t>even_MAG-GUT30581.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>63202.80116751679</v>
+        <v>63059.76801409532</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1799,11 +1799,11 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20639.fa</t>
+          <t>even_MAG-GUT30699.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>27747.36780287871</v>
+        <v>71955.9259330073</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1819,11 +1819,11 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2081.fa</t>
+          <t>even_MAG-GUT31093.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>74444.41489704199</v>
+        <v>56271.80420426396</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1839,11 +1839,11 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2086.fa</t>
+          <t>even_MAG-GUT31302.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>80531.39698930745</v>
+        <v>36090.43341281071</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1859,11 +1859,11 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21102.fa</t>
+          <t>even_MAG-GUT31785.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>51363.70000154385</v>
+        <v>43350.41442637955</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1879,11 +1879,11 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21682.fa</t>
+          <t>even_MAG-GUT32106.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>71608.30850705729</v>
+        <v>61090.85922821796</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1899,11 +1899,11 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2203.fa</t>
+          <t>even_MAG-GUT32691.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>74611.49174714503</v>
+        <v>54966.79315194034</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1919,11 +1919,11 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23387.fa</t>
+          <t>even_MAG-GUT33511.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>29165.91818669276</v>
+        <v>42059.26290455041</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1939,11 +1939,11 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23746.fa</t>
+          <t>even_MAG-GUT33530.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>88366.93080716705</v>
+        <v>38219.80032029872</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23754.fa</t>
+          <t>even_MAG-GUT33604.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>49152.30952732172</v>
+        <v>47377.69803236231</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1979,11 +1979,11 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24052.fa</t>
+          <t>even_MAG-GUT3377.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>70217.89225080935</v>
+        <v>66779.24709785289</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1999,11 +1999,11 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24126.fa</t>
+          <t>even_MAG-GUT34206.fa</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>46581.97400453835</v>
+        <v>37671.62470782132</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2019,11 +2019,11 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24765.fa</t>
+          <t>even_MAG-GUT34421.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>64486.21271520943</v>
+        <v>37623.89361541023</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2039,11 +2039,11 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25048.fa</t>
+          <t>even_MAG-GUT34513.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>61206.8823399672</v>
+        <v>42831.96832641996</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2059,11 +2059,11 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25340.fa</t>
+          <t>even_MAG-GUT34778.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>65674.01949016255</v>
+        <v>37623.89361541023</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2079,11 +2079,11 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25590.fa</t>
+          <t>even_MAG-GUT35231.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>59156.93358017479</v>
+        <v>38470.09480640008</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2099,11 +2099,11 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29189.fa</t>
+          <t>even_MAG-GUT35807.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>57640.08037191872</v>
+        <v>36597.17104379924</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2119,11 +2119,11 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29214.fa</t>
+          <t>even_MAG-GUT36998.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>60233.02972242839</v>
+        <v>60944.05787001217</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2139,11 +2139,11 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29221.fa</t>
+          <t>even_MAG-GUT3710.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>57474.25920824519</v>
+        <v>74425.71555922208</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2159,11 +2159,11 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29476.fa</t>
+          <t>even_MAG-GUT37167.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>79737.16849337745</v>
+        <v>32958.10908800784</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2179,11 +2179,11 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29587.fa</t>
+          <t>even_MAG-GUT37176.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>35826.46513728703</v>
+        <v>67558.2389760793</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2199,11 +2199,11 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29781.fa</t>
+          <t>even_MAG-GUT37279.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>61432.99003866015</v>
+        <v>59224.06681097111</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2219,11 +2219,11 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29856.fa</t>
+          <t>even_MAG-GUT37376.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>50172.62772212199</v>
+        <v>45903.70101862166</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2239,11 +2239,11 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29878.fa</t>
+          <t>even_MAG-GUT37445.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>10882.10438245372</v>
+        <v>84227.21487632336</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2259,11 +2259,11 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30091.fa</t>
+          <t>even_MAG-GUT37689.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>83116.92306584152</v>
+        <v>61708.26275888325</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2279,11 +2279,11 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30581.fa</t>
+          <t>even_MAG-GUT38551.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>63059.76801409532</v>
+        <v>35871.55965657407</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2299,11 +2299,11 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30699.fa</t>
+          <t>even_MAG-GUT38702.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>71955.9259330073</v>
+        <v>49851.19949293794</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31093.fa</t>
+          <t>even_MAG-GUT3880.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>56271.80420426396</v>
+        <v>46230.57538754946</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2339,11 +2339,11 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31302.fa</t>
+          <t>even_MAG-GUT42358.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>36090.43341281071</v>
+        <v>44623.72800100911</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2359,11 +2359,11 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31785.fa</t>
+          <t>even_MAG-GUT43155.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>43350.41442637955</v>
+        <v>74363.85494707976</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2379,11 +2379,11 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32106.fa</t>
+          <t>even_MAG-GUT43216.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>61090.85922821796</v>
+        <v>90662.44886504555</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2399,11 +2399,11 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32691.fa</t>
+          <t>even_MAG-GUT43233.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>54966.79315194034</v>
+        <v>61061.01984968819</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2419,11 +2419,11 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33511.fa</t>
+          <t>even_MAG-GUT43329.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>42059.26290455041</v>
+        <v>85781.50356925951</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2439,11 +2439,11 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33530.fa</t>
+          <t>even_MAG-GUT43570.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>38219.80032029872</v>
+        <v>60746.82215110482</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2459,11 +2459,11 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33604.fa</t>
+          <t>even_MAG-GUT43698.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>47377.69803236231</v>
+        <v>74973.04397319465</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2479,11 +2479,11 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33657.fa</t>
+          <t>even_MAG-GUT44000.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>47496.70538234689</v>
+        <v>100453.7682690342</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2499,11 +2499,11 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3377.fa</t>
+          <t>even_MAG-GUT44111.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>66779.24709785289</v>
+        <v>78926.33306605925</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2519,11 +2519,11 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34206.fa</t>
+          <t>even_MAG-GUT44662.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>37671.62470782132</v>
+        <v>73142.85775541252</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2539,11 +2539,11 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34421.fa</t>
+          <t>even_MAG-GUT44851.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>37623.89361541023</v>
+        <v>83058.42332202826</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2559,11 +2559,11 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34513.fa</t>
+          <t>even_MAG-GUT45317.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>42831.96832641996</v>
+        <v>101477.058855717</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2579,11 +2579,11 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34778.fa</t>
+          <t>even_MAG-GUT45633.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>37623.89361541023</v>
+        <v>75555.15151018351</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2599,11 +2599,11 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35231.fa</t>
+          <t>even_MAG-GUT45684.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>38470.09480640008</v>
+        <v>98853.95095520116</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2619,11 +2619,11 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35807.fa</t>
+          <t>even_MAG-GUT45719.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>36597.17104379924</v>
+        <v>76018.89110222003</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2639,11 +2639,11 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36136.fa</t>
+          <t>even_MAG-GUT45776.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>100814.7646692195</v>
+        <v>97756.28611587253</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2659,11 +2659,11 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36998.fa</t>
+          <t>even_MAG-GUT45903.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>60944.05787001217</v>
+        <v>85852.71754423912</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3710.fa</t>
+          <t>even_MAG-GUT46165.fa</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>74425.71555922208</v>
+        <v>67303.98539208004</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2699,11 +2699,11 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37167.fa</t>
+          <t>even_MAG-GUT46247.fa</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>32958.10908800784</v>
+        <v>56243.96111092063</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2719,11 +2719,11 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37176.fa</t>
+          <t>even_MAG-GUT46435.fa</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>67558.2389760793</v>
+        <v>82595.25426064778</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2739,11 +2739,11 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37279.fa</t>
+          <t>even_MAG-GUT46922.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>59224.06681097111</v>
+        <v>84011.21874303187</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2759,11 +2759,11 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37376.fa</t>
+          <t>even_MAG-GUT46931.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>45903.70101862166</v>
+        <v>88300.78103243797</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2779,11 +2779,11 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37445.fa</t>
+          <t>even_MAG-GUT46987.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>84227.21487632336</v>
+        <v>58379.89255730891</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2799,11 +2799,11 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37689.fa</t>
+          <t>even_MAG-GUT47186.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>61708.26275888325</v>
+        <v>82315.50628286267</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2819,11 +2819,11 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37976.fa</t>
+          <t>even_MAG-GUT47222.fa</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>77848.46521013207</v>
+        <v>84348.78697774287</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2839,11 +2839,11 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38551.fa</t>
+          <t>even_MAG-GUT47622.fa</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>35871.55965657407</v>
+        <v>93660.01347050883</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2859,11 +2859,11 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38702.fa</t>
+          <t>even_MAG-GUT47676.fa</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>49851.19949293794</v>
+        <v>96150.42837095563</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2879,11 +2879,11 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3880.fa</t>
+          <t>even_MAG-GUT47875.fa</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>46230.57538754946</v>
+        <v>78471.06178270614</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2899,11 +2899,11 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42358.fa</t>
+          <t>even_MAG-GUT47922.fa</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>44623.72800100911</v>
+        <v>96354.61140878055</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2919,11 +2919,11 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43152.fa</t>
+          <t>even_MAG-GUT48190.fa</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>80936.09758317027</v>
+        <v>80573.37428581709</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2939,11 +2939,11 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43155.fa</t>
+          <t>even_MAG-GUT48247.fa</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>74363.85494707976</v>
+        <v>97503.48693290768</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2959,11 +2959,11 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43216.fa</t>
+          <t>even_MAG-GUT48628.fa</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>90662.44886504555</v>
+        <v>56481.0532325494</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2979,11 +2979,11 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43233.fa</t>
+          <t>even_MAG-GUT48630.fa</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>61061.01984968819</v>
+        <v>68972.13937723362</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2999,11 +2999,11 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43248.fa</t>
+          <t>even_MAG-GUT48634.fa</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>91370.60824937894</v>
+        <v>75710.76560235384</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -3019,11 +3019,11 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43329.fa</t>
+          <t>even_MAG-GUT48635.fa</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>85781.50356925951</v>
+        <v>88724.54261331965</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43570.fa</t>
+          <t>even_MAG-GUT48651.fa</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>60746.82215110482</v>
+        <v>80091.07592662278</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -3059,11 +3059,11 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43698.fa</t>
+          <t>even_MAG-GUT48654.fa</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>74973.04397319465</v>
+        <v>75197.44389327509</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -3079,11 +3079,11 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43835.fa</t>
+          <t>even_MAG-GUT48684.fa</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>78323.36968926706</v>
+        <v>62683.492019497</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -3099,11 +3099,11 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44000.fa</t>
+          <t>even_MAG-GUT48694.fa</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>100453.7682690342</v>
+        <v>62698.01438006716</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -3119,11 +3119,11 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44111.fa</t>
+          <t>even_MAG-GUT48733.fa</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>78926.33306605925</v>
+        <v>78491.89129415613</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -3139,11 +3139,11 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44662.fa</t>
+          <t>even_MAG-GUT48779.fa</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>73142.85775541252</v>
+        <v>57271.51586126989</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -3159,11 +3159,11 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44851.fa</t>
+          <t>even_MAG-GUT48825.fa</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>83058.42332202826</v>
+        <v>73134.4502974083</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -3179,11 +3179,11 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45317.fa</t>
+          <t>even_MAG-GUT48863.fa</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>101477.058855717</v>
+        <v>82097.33867202843</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -3199,11 +3199,11 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45633.fa</t>
+          <t>even_MAG-GUT48902.fa</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>75555.15151018351</v>
+        <v>50715.47282243344</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -3219,11 +3219,11 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45684.fa</t>
+          <t>even_MAG-GUT48923.fa</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>98853.95095520116</v>
+        <v>86752.6453861975</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -3239,11 +3239,11 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45719.fa</t>
+          <t>even_MAG-GUT48943.fa</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>76018.89110222003</v>
+        <v>84014.77025959964</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -3259,11 +3259,11 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45776.fa</t>
+          <t>even_MAG-GUT48957.fa</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>97756.28611587253</v>
+        <v>92685.51270365164</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -3279,11 +3279,11 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45903.fa</t>
+          <t>even_MAG-GUT48959.fa</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>85852.71754423912</v>
+        <v>67566.10564717322</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -3299,11 +3299,11 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46165.fa</t>
+          <t>even_MAG-GUT48964.fa</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>67303.98539208004</v>
+        <v>80900.22013672891</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -3319,11 +3319,11 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46247.fa</t>
+          <t>even_MAG-GUT48986.fa</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>56243.96111092063</v>
+        <v>68359.67351302688</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -3339,11 +3339,11 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46435.fa</t>
+          <t>even_MAG-GUT49003.fa</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>82595.25426064778</v>
+        <v>68636.27797203492</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -3359,11 +3359,11 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46922.fa</t>
+          <t>even_MAG-GUT49011.fa</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>84011.21874303187</v>
+        <v>69419.19179715222</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3379,11 +3379,11 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46931.fa</t>
+          <t>even_MAG-GUT49026.fa</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>88300.78103243797</v>
+        <v>85841.87355685495</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46987.fa</t>
+          <t>even_MAG-GUT49035.fa</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>58379.89255730891</v>
+        <v>58487.22983271978</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -3419,11 +3419,11 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47106.fa</t>
+          <t>even_MAG-GUT49036.fa</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>83604.23612605041</v>
+        <v>86891.58764880071</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -3439,11 +3439,11 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47186.fa</t>
+          <t>even_MAG-GUT49203.fa</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>82315.50628286267</v>
+        <v>60298.27980648805</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -3459,11 +3459,11 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47222.fa</t>
+          <t>even_MAG-GUT49266.fa</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>84348.78697774287</v>
+        <v>74801.85476640311</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -3479,11 +3479,11 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47622.fa</t>
+          <t>even_MAG-GUT49309.fa</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>93660.01347050883</v>
+        <v>63619.55408401939</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -3499,11 +3499,11 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47676.fa</t>
+          <t>even_MAG-GUT49328.fa</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>96150.42837095563</v>
+        <v>71328.53617678295</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -3519,11 +3519,11 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47875.fa</t>
+          <t>even_MAG-GUT49355.fa</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>78471.06178270614</v>
+        <v>91695.30672784008</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -3539,11 +3539,11 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47922.fa</t>
+          <t>even_MAG-GUT49371.fa</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>96354.61140878055</v>
+        <v>72851.84842282154</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -3559,11 +3559,11 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48190.fa</t>
+          <t>even_MAG-GUT49399.fa</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>80573.37428581709</v>
+        <v>75093.47635690482</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -3579,11 +3579,11 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48247.fa</t>
+          <t>even_MAG-GUT49414.fa</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>97503.48693290768</v>
+        <v>63687.87366028968</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -3599,11 +3599,11 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48628.fa</t>
+          <t>even_MAG-GUT49474.fa</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>56481.0532325494</v>
+        <v>74240.02135186733</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -3619,11 +3619,11 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48630.fa</t>
+          <t>even_MAG-GUT49516.fa</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>68972.13937723362</v>
+        <v>61903.98473471832</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -3639,11 +3639,11 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48634.fa</t>
+          <t>even_MAG-GUT49534.fa</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>75710.76560235384</v>
+        <v>92425.98279828779</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -3659,11 +3659,11 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48635.fa</t>
+          <t>even_MAG-GUT49545.fa</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>88724.54261331965</v>
+        <v>75370.08877187701</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -3679,11 +3679,11 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48651.fa</t>
+          <t>even_MAG-GUT49558.fa</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>80091.07592662278</v>
+        <v>91444.9501756293</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -3699,11 +3699,11 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48654.fa</t>
+          <t>even_MAG-GUT49568.fa</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>75197.44389327509</v>
+        <v>69068.93297370008</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -3719,11 +3719,11 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48684.fa</t>
+          <t>even_MAG-GUT49571.fa</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>62683.492019497</v>
+        <v>87782.1808336652</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -3739,11 +3739,11 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48694.fa</t>
+          <t>even_MAG-GUT49576.fa</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>62698.01438006716</v>
+        <v>72626.21951267967</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48733.fa</t>
+          <t>even_MAG-GUT49583.fa</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>78491.89129415613</v>
+        <v>75945.69246888808</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -3779,11 +3779,11 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48779.fa</t>
+          <t>even_MAG-GUT49589.fa</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>57271.51586126989</v>
+        <v>76768.98746967458</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -3799,11 +3799,11 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48825.fa</t>
+          <t>even_MAG-GUT49596.fa</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>73134.4502974083</v>
+        <v>58084.79930462173</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -3819,11 +3819,11 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48863.fa</t>
+          <t>even_MAG-GUT49597.fa</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>82097.33867202843</v>
+        <v>56256.22507001583</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -3839,11 +3839,11 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48902.fa</t>
+          <t>even_MAG-GUT49604.fa</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>50715.47282243344</v>
+        <v>77182.86613691847</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -3859,11 +3859,11 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48923.fa</t>
+          <t>even_MAG-GUT5004.fa</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>86752.6453861975</v>
+        <v>88052.55941787412</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -3879,11 +3879,11 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48943.fa</t>
+          <t>even_MAG-GUT51926.fa</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>84014.77025959964</v>
+        <v>98043.50987059495</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -3899,11 +3899,11 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48949.fa</t>
+          <t>even_MAG-GUT5199.fa</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>84707.08716861511</v>
+        <v>83523.41332685042</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -3919,11 +3919,11 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48957.fa</t>
+          <t>even_MAG-GUT5341.fa</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>92685.51270365164</v>
+        <v>55340.18988542257</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -3939,11 +3939,11 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48959.fa</t>
+          <t>even_MAG-GUT55383.fa</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>67566.10564717322</v>
+        <v>30558.07531331285</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -3959,11 +3959,11 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48964.fa</t>
+          <t>even_MAG-GUT56570.fa</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>80900.22013672891</v>
+        <v>61380.076573422</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -3979,11 +3979,11 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48986.fa</t>
+          <t>even_MAG-GUT5676.fa</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>68359.67351302688</v>
+        <v>57456.3463720627</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -3999,11 +3999,11 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49003.fa</t>
+          <t>even_MAG-GUT5687.fa</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>68636.27797203492</v>
+        <v>85444.84281657364</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -4019,11 +4019,11 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49011.fa</t>
+          <t>even_MAG-GUT57069.fa</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>69419.19179715222</v>
+        <v>74491.3281144248</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -4039,11 +4039,11 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49026.fa</t>
+          <t>even_MAG-GUT57190.fa</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>85841.87355685495</v>
+        <v>53298.86581526427</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -4059,11 +4059,11 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49035.fa</t>
+          <t>even_MAG-GUT57498.fa</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>58487.22983271978</v>
+        <v>64680.51341980396</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -4079,11 +4079,11 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49036.fa</t>
+          <t>even_MAG-GUT57765.fa</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>86891.58764880071</v>
+        <v>37766.63410928757</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -4099,11 +4099,11 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49203.fa</t>
+          <t>even_MAG-GUT57771.fa</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>60298.27980648805</v>
+        <v>59249.93039852873</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49266.fa</t>
+          <t>even_MAG-GUT58133.fa</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>74801.85476640311</v>
+        <v>78567.18408145974</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -4139,11 +4139,11 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49294.fa</t>
+          <t>even_MAG-GUT58310.fa</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>92410.11922829467</v>
+        <v>69734.89435390355</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -4159,11 +4159,11 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49309.fa</t>
+          <t>even_MAG-GUT58672.fa</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>63619.55408401939</v>
+        <v>87316.17211274244</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -4179,11 +4179,11 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49328.fa</t>
+          <t>even_MAG-GUT5959.fa</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>71328.53617678295</v>
+        <v>87455.49644818905</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -4199,11 +4199,11 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49355.fa</t>
+          <t>even_MAG-GUT59593.fa</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>91695.30672784008</v>
+        <v>48205.46924371932</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -4219,11 +4219,11 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49371.fa</t>
+          <t>even_MAG-GUT60123.fa</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>72851.84842282154</v>
+        <v>73425.90190476312</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -4239,11 +4239,11 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49399.fa</t>
+          <t>even_MAG-GUT60320.fa</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>75093.47635690482</v>
+        <v>84561.52044544363</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -4259,11 +4259,11 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49414.fa</t>
+          <t>even_MAG-GUT60370.fa</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>63687.87366028968</v>
+        <v>71079.12486330842</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -4279,11 +4279,11 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49474.fa</t>
+          <t>even_MAG-GUT60756.fa</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>74240.02135186733</v>
+        <v>55442.62096128214</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -4299,11 +4299,11 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49516.fa</t>
+          <t>even_MAG-GUT61623.fa</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>61903.98473471832</v>
+        <v>55415.11327548497</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -4319,11 +4319,11 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49534.fa</t>
+          <t>even_MAG-GUT61634.fa</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>92425.98279828779</v>
+        <v>83279.18601125343</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -4339,11 +4339,11 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49545.fa</t>
+          <t>even_MAG-GUT61658.fa</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>75370.08877187701</v>
+        <v>52785.87058793177</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -4359,11 +4359,11 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49558.fa</t>
+          <t>even_MAG-GUT61937.fa</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>91444.9501756293</v>
+        <v>75161.11691307447</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -4379,11 +4379,11 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49568.fa</t>
+          <t>even_MAG-GUT62117.fa</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>69068.93297370008</v>
+        <v>66482.72461704335</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -4399,11 +4399,11 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49571.fa</t>
+          <t>even_MAG-GUT62119.fa</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>87782.1808336652</v>
+        <v>49820.23221354942</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -4419,11 +4419,11 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49576.fa</t>
+          <t>even_MAG-GUT62666.fa</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>72626.21951267967</v>
+        <v>80956.9331806025</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -4439,11 +4439,11 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49583.fa</t>
+          <t>even_MAG-GUT64345.fa</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>75945.69246888808</v>
+        <v>76807.96724486964</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -4459,11 +4459,11 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49589.fa</t>
+          <t>even_MAG-GUT64513.fa</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>76768.98746967458</v>
+        <v>76807.96724486964</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49596.fa</t>
+          <t>even_MAG-GUT66378.fa</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>58084.79930462173</v>
+        <v>37153.98153200863</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -4499,11 +4499,11 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49597.fa</t>
+          <t>even_MAG-GUT6679.fa</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>56256.22507001583</v>
+        <v>58020.28747094852</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -4519,11 +4519,11 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49604.fa</t>
+          <t>even_MAG-GUT66953.fa</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>77182.86613691847</v>
+        <v>64536.6001615019</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -4539,11 +4539,11 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5004.fa</t>
+          <t>even_MAG-GUT67253.fa</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>88052.55941787412</v>
+        <v>73039.17397821844</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -4559,11 +4559,11 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51926.fa</t>
+          <t>even_MAG-GUT67256.fa</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>98043.50987059495</v>
+        <v>92827.97170394195</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -4579,11 +4579,11 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51928.fa</t>
+          <t>even_MAG-GUT67799.fa</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>83134.72912158798</v>
+        <v>63829.11642264511</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -4599,11 +4599,11 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5199.fa</t>
+          <t>even_MAG-GUT68086.fa</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>83523.41332685042</v>
+        <v>56941.8506369285</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -4619,11 +4619,11 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5341.fa</t>
+          <t>even_MAG-GUT68216.fa</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>55340.18988542257</v>
+        <v>65418.04146956159</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -4639,11 +4639,11 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT54583.fa</t>
+          <t>even_MAG-GUT68260.fa</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>82042.39785653769</v>
+        <v>48224.63881740821</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -4659,11 +4659,11 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55383.fa</t>
+          <t>even_MAG-GUT68570.fa</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>30558.07531331285</v>
+        <v>70806.7540936986</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -4679,11 +4679,11 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56559.fa</t>
+          <t>even_MAG-GUT68726.fa</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>69778.22262250957</v>
+        <v>73857.27040068047</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -4699,11 +4699,11 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56570.fa</t>
+          <t>even_MAG-GUT68810.fa</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>61380.076573422</v>
+        <v>87885.64290855397</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -4719,11 +4719,11 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56604.fa</t>
+          <t>even_MAG-GUT68872.fa</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>56548.23275339618</v>
+        <v>63778.92374635371</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -4739,11 +4739,11 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5676.fa</t>
+          <t>even_MAG-GUT69096.fa</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>57456.3463720627</v>
+        <v>80361.65073422798</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -4759,11 +4759,11 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5687.fa</t>
+          <t>even_MAG-GUT69113.fa</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>85444.84281657364</v>
+        <v>54322.39050200149</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -4779,11 +4779,11 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57066.fa</t>
+          <t>even_MAG-GUT69123.fa</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>67494.60996822703</v>
+        <v>77018.82670003615</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -4799,11 +4799,11 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57069.fa</t>
+          <t>even_MAG-GUT69144.fa</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>74491.3281144248</v>
+        <v>68205.26330163037</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -4819,11 +4819,11 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57190.fa</t>
+          <t>even_MAG-GUT69198.fa</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>53298.86581526427</v>
+        <v>61538.78096694899</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57346.fa</t>
+          <t>even_MAG-GUT69367.fa</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>56548.23275339618</v>
+        <v>61889.26221769878</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -4859,11 +4859,11 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57398.fa</t>
+          <t>even_MAG-GUT69378.fa</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>60645.84139237207</v>
+        <v>69310.84868817565</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -4879,11 +4879,11 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57498.fa</t>
+          <t>even_MAG-GUT69417.fa</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>64680.51341980396</v>
+        <v>70307.80873693957</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -4899,11 +4899,11 @@
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57542.fa</t>
+          <t>even_MAG-GUT69483.fa</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>73646.52118639406</v>
+        <v>78391.63518963862</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -4919,11 +4919,11 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57592.fa</t>
+          <t>even_MAG-GUT69551.fa</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>62810.55768102589</v>
+        <v>91157.7458748643</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -4939,11 +4939,11 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57765.fa</t>
+          <t>even_MAG-GUT7031.fa</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>37766.63410928757</v>
+        <v>42763.08771209003</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -4959,11 +4959,11 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57771.fa</t>
+          <t>even_MAG-GUT7088.fa</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>59249.93039852873</v>
+        <v>101967.0230207288</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -4979,11 +4979,11 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57988.fa</t>
+          <t>even_MAG-GUT7095.fa</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>68585.10732295307</v>
+        <v>89890.57619601386</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -4999,11 +4999,11 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58133.fa</t>
+          <t>even_MAG-GUT7099.fa</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>78567.18408145974</v>
+        <v>81810.96689423147</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -5019,11 +5019,11 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58310.fa</t>
+          <t>even_MAG-GUT7105.fa</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>69734.89435390355</v>
+        <v>95928.29702649511</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -5039,11 +5039,11 @@
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58672.fa</t>
+          <t>even_MAG-GUT7112.fa</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>87316.17211274244</v>
+        <v>81810.96689423147</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -5059,11 +5059,11 @@
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59502.fa</t>
+          <t>even_MAG-GUT7120.fa</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>62937.35139394297</v>
+        <v>83153.65040353288</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -5079,11 +5079,11 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59576.fa</t>
+          <t>even_MAG-GUT7132.fa</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>64523.21415077081</v>
+        <v>93276.76740304452</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -5099,11 +5099,11 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5959.fa</t>
+          <t>even_MAG-GUT7155.fa</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>87455.49644818905</v>
+        <v>82435.06599727555</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -5119,11 +5119,11 @@
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59593.fa</t>
+          <t>even_MAG-GUT7161.fa</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>48205.46924371932</v>
+        <v>83751.79787185788</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -5139,11 +5139,11 @@
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59626.fa</t>
+          <t>even_MAG-GUT7166.fa</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>69778.22262250957</v>
+        <v>77795.8304212901</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -5159,11 +5159,11 @@
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60077.fa</t>
+          <t>even_MAG-GUT7197.fa</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>55914.28473328256</v>
+        <v>93061.39301160024</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -5179,11 +5179,11 @@
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60123.fa</t>
+          <t>even_MAG-GUT7210.fa</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>73425.90190476312</v>
+        <v>76281.00386827471</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -5199,11 +5199,11 @@
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60157.fa</t>
+          <t>even_MAG-GUT7229.fa</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>57504.73730955311</v>
+        <v>91197.87479266569</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -5219,11 +5219,11 @@
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60320.fa</t>
+          <t>even_MAG-GUT7247.fa</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>84561.52044544363</v>
+        <v>73739.42994370403</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -5239,11 +5239,11 @@
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60370.fa</t>
+          <t>even_MAG-GUT73491.fa</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>71079.12486330842</v>
+        <v>49769.52659351204</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -5259,11 +5259,11 @@
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60466.fa</t>
+          <t>even_MAG-GUT74329.fa</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>93566.43854315243</v>
+        <v>83312.33851195888</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -5279,11 +5279,11 @@
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60605.fa</t>
+          <t>even_MAG-GUT74380.fa</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>78556.93923843764</v>
+        <v>70576.62337595175</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -5299,11 +5299,11 @@
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60756.fa</t>
+          <t>even_MAG-GUT75402.fa</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>55442.62096128214</v>
+        <v>77449.51666532821</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -5319,11 +5319,11 @@
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60882.fa</t>
+          <t>even_MAG-GUT7546.fa</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>83985.26018297108</v>
+        <v>81446.96061911738</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -5339,11 +5339,11 @@
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60999.fa</t>
+          <t>even_MAG-GUT75522.fa</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>73395.28861845254</v>
+        <v>79052.53680739312</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -5359,11 +5359,11 @@
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61376.fa</t>
+          <t>even_MAG-GUT79350.fa</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>79850.64258326008</v>
+        <v>62870.90689126683</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -5379,11 +5379,11 @@
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61623.fa</t>
+          <t>even_MAG-GUT80385.fa</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>55415.11327548497</v>
+        <v>39058.07664379958</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -5399,11 +5399,11 @@
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61634.fa</t>
+          <t>even_MAG-GUT80453.fa</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>83279.18601125343</v>
+        <v>84273.76226096605</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -5419,11 +5419,11 @@
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61658.fa</t>
+          <t>even_MAG-GUT80718.fa</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>52785.87058793177</v>
+        <v>41580.7779055732</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -5439,11 +5439,11 @@
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61937.fa</t>
+          <t>even_MAG-GUT80771.fa</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>75161.11691307447</v>
+        <v>77624.32220483111</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -5459,11 +5459,11 @@
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62054.fa</t>
+          <t>even_MAG-GUT81679.fa</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>77562.40412805985</v>
+        <v>84934.54080397343</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -5479,11 +5479,11 @@
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62117.fa</t>
+          <t>even_MAG-GUT81926.fa</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>66482.72461704335</v>
+        <v>77387.46073098571</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -5499,11 +5499,11 @@
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62119.fa</t>
+          <t>even_MAG-GUT81987.fa</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>49820.23221354942</v>
+        <v>84934.54080397343</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -5519,11 +5519,11 @@
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62444.fa</t>
+          <t>even_MAG-GUT82039.fa</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>56706.05815120689</v>
+        <v>42961.38592254018</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -5539,11 +5539,11 @@
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62509.fa</t>
+          <t>even_MAG-GUT82160.fa</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>74488.29655530379</v>
+        <v>76291.18940479033</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62666.fa</t>
+          <t>even_MAG-GUT82738.fa</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>80956.9331806025</v>
+        <v>48670.87010689786</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -5579,11 +5579,11 @@
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT64345.fa</t>
+          <t>even_MAG-GUT84613.fa</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>76807.96724486964</v>
+        <v>58770.87667585809</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -5599,11 +5599,11 @@
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT64513.fa</t>
+          <t>even_MAG-GUT86853.fa</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>76807.96724486964</v>
+        <v>54772.95826141443</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -5619,11 +5619,11 @@
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66378.fa</t>
+          <t>even_MAG-GUT86870.fa</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>37153.98153200863</v>
+        <v>69697.46222388418</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -5639,11 +5639,11 @@
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66382.fa</t>
+          <t>even_MAG-GUT86935.fa</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>47927.03435235638</v>
+        <v>44682.25546545726</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -5659,11 +5659,11 @@
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6679.fa</t>
+          <t>even_MAG-GUT87208.fa</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>58020.28747094852</v>
+        <v>59526.88517934641</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -5679,11 +5679,11 @@
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66953.fa</t>
+          <t>even_MAG-GUT87297.fa</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>64536.6001615019</v>
+        <v>45372.97141847962</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -5699,11 +5699,11 @@
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67253.fa</t>
+          <t>even_MAG-GUT87358.fa</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>73039.17397821844</v>
+        <v>52197.20879535582</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -5719,11 +5719,11 @@
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67256.fa</t>
+          <t>even_MAG-GUT87793.fa</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>92827.97170394195</v>
+        <v>39532.07932743276</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -5739,11 +5739,11 @@
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67799.fa</t>
+          <t>even_MAG-GUT87821.fa</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>63829.11642264511</v>
+        <v>78282.93604239151</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -5759,11 +5759,11 @@
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68086.fa</t>
+          <t>even_MAG-GUT87833.fa</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>56941.8506369285</v>
+        <v>50314.49400158471</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -5779,11 +5779,11 @@
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68216.fa</t>
+          <t>even_MAG-GUT87873.fa</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>65418.04146956159</v>
+        <v>83243.32620619795</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -5799,11 +5799,11 @@
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68260.fa</t>
+          <t>even_MAG-GUT88263.fa</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>48224.63881740821</v>
+        <v>50224.71577492116</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -5819,11 +5819,11 @@
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68570.fa</t>
+          <t>even_MAG-GUT88291.fa</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>70806.7540936986</v>
+        <v>58957.01196911698</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -5839,11 +5839,11 @@
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68726.fa</t>
+          <t>even_MAG-GUT88563.fa</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>73857.27040068047</v>
+        <v>53470.06956381872</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -5859,11 +5859,11 @@
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68810.fa</t>
+          <t>even_MAG-GUT88626.fa</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>87885.64290855397</v>
+        <v>39964.69422058511</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -5879,11 +5879,11 @@
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68872.fa</t>
+          <t>even_MAG-GUT88854.fa</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>63778.92374635371</v>
+        <v>42444.53666109921</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -5899,11 +5899,11 @@
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69096.fa</t>
+          <t>even_MAG-GUT88891.fa</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>80361.65073422798</v>
+        <v>40433.33631884564</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -5919,11 +5919,11 @@
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69113.fa</t>
+          <t>even_MAG-GUT89009.fa</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>54322.39050200149</v>
+        <v>47042.25273655781</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -5939,11 +5939,11 @@
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69123.fa</t>
+          <t>even_MAG-GUT89205.fa</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>77018.82670003615</v>
+        <v>82792.60931118943</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -5959,11 +5959,11 @@
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69144.fa</t>
+          <t>even_MAG-GUT89239.fa</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>68205.26330163037</v>
+        <v>36794.07296304278</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -5979,11 +5979,11 @@
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69198.fa</t>
+          <t>even_MAG-GUT89291.fa</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>61538.78096694899</v>
+        <v>92883.98599631902</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -5999,11 +5999,11 @@
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69367.fa</t>
+          <t>even_MAG-GUT89318.fa</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>61889.26221769878</v>
+        <v>85824.70437646414</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -6019,11 +6019,11 @@
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69378.fa</t>
+          <t>even_MAG-GUT89323.fa</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>69310.84868817565</v>
+        <v>35619.77739392121</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -6039,11 +6039,11 @@
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69417.fa</t>
+          <t>even_MAG-GUT89344.fa</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>70307.80873693957</v>
+        <v>51708.19256442961</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -6059,11 +6059,11 @@
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69483.fa</t>
+          <t>even_MAG-GUT89356.fa</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>78391.63518963862</v>
+        <v>85824.70437646414</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -6079,11 +6079,11 @@
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69551.fa</t>
+          <t>even_MAG-GUT89364.fa</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>91157.7458748643</v>
+        <v>79896.80811769197</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -6099,11 +6099,11 @@
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69771.fa</t>
+          <t>even_MAG-GUT89571.fa</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>39418.5629684114</v>
+        <v>48147.91881701296</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -6119,11 +6119,11 @@
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7031.fa</t>
+          <t>even_MAG-GUT89717.fa</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>42763.08771209003</v>
+        <v>78338.39428028517</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -6139,11 +6139,11 @@
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7040.fa</t>
+          <t>even_MAG-GUT90076.fa</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>38391.0696967477</v>
+        <v>91497.36089189586</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -6159,11 +6159,11 @@
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7088.fa</t>
+          <t>even_MAG-GUT90108.fa</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>101967.0230207288</v>
+        <v>82284.56851013508</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -6179,11 +6179,11 @@
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7095.fa</t>
+          <t>even_MAG-GUT90168.fa</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>89890.57619601386</v>
+        <v>83942.59179733276</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -6199,11 +6199,11 @@
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7099.fa</t>
+          <t>even_MAG-GUT90190.fa</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>81810.96689423147</v>
+        <v>82792.60931118943</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -6219,11 +6219,11 @@
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7105.fa</t>
+          <t>even_MAG-GUT90292.fa</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>95928.29702649511</v>
+        <v>96362.85159920862</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -6239,11 +6239,11 @@
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7112.fa</t>
+          <t>even_MAG-GUT90367.fa</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>81810.96689423147</v>
+        <v>83991.97396420337</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -6259,11 +6259,11 @@
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7120.fa</t>
+          <t>even_MAG-GUT90479.fa</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>83153.65040353288</v>
+        <v>55365.83646989292</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -6279,11 +6279,11 @@
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7132.fa</t>
+          <t>even_MAG-GUT90502.fa</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>93276.76740304452</v>
+        <v>48147.91881701296</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -6299,11 +6299,11 @@
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7155.fa</t>
+          <t>even_MAG-GUT90600.fa</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>82435.06599727555</v>
+        <v>60757.48014228143</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -6319,11 +6319,11 @@
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7161.fa</t>
+          <t>even_MAG-GUT90634.fa</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>83751.79787185788</v>
+        <v>76491.30288642002</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -6339,11 +6339,11 @@
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7166.fa</t>
+          <t>even_MAG-GUT90947.fa</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>77795.8304212901</v>
+        <v>85824.70437646414</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -6359,11 +6359,11 @@
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7197.fa</t>
+          <t>even_MAG-GUT90977.fa</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>93061.39301160024</v>
+        <v>85824.70437646414</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -6379,11 +6379,11 @@
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7210.fa</t>
+          <t>even_MAG-GUT91033.fa</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>76281.00386827471</v>
+        <v>90698.77918776635</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -6399,11 +6399,11 @@
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72119.fa</t>
+          <t>even_MAG-GUT91117.fa</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>57914.70065656201</v>
+        <v>85824.70437646414</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -6419,11 +6419,11 @@
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72127.fa</t>
+          <t>even_MAG-GUT91136.fa</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>70583.99385867626</v>
+        <v>85985.41939423655</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -6439,11 +6439,11 @@
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7229.fa</t>
+          <t>even_MAG-GUT91276.fa</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>91197.87479266569</v>
+        <v>67559.59073513668</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -6459,11 +6459,11 @@
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7247.fa</t>
+          <t>even_MAG-GUT91278.fa</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>73739.42994370403</v>
+        <v>72743.92966486733</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -6479,11 +6479,11 @@
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73491.fa</t>
+          <t>even_MAG-GUT91345.fa</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>49769.52659351204</v>
+        <v>83672.352667571</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -6499,11 +6499,11 @@
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74329.fa</t>
+          <t>even_MAG-GUT91364.fa</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>83312.33851195888</v>
+        <v>83402.30182382207</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -6519,11 +6519,11 @@
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74380.fa</t>
+          <t>even_MAG-GUT91383.fa</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>70576.62337595175</v>
+        <v>66040.18241534985</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -6539,11 +6539,11 @@
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT75402.fa</t>
+          <t>even_MAG-GUT91475.fa</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>77449.51666532821</v>
+        <v>84374.62492048189</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -6559,11 +6559,11 @@
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT75430.fa</t>
+          <t>even_MAG-GUT91600.fa</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>64867.23133170031</v>
+        <v>87831.17965002434</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -6579,11 +6579,11 @@
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7546.fa</t>
+          <t>even_MAG-GUT91603.fa</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>81446.96061911738</v>
+        <v>86709.97342202716</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -6599,11 +6599,11 @@
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT75522.fa</t>
+          <t>even_MAG-GUT91866.fa</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>79052.53680739312</v>
+        <v>67780.73761036973</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -6619,11 +6619,11 @@
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT79350.fa</t>
+          <t>even_MAG-GUT91873.fa</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>62870.90689126683</v>
+        <v>96241.50571646813</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -6639,11 +6639,11 @@
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80385.fa</t>
+          <t>even_MAG-GUT91938.fa</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>39058.07664379958</v>
+        <v>81914.44542089054</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -6659,11 +6659,11 @@
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80453.fa</t>
+          <t>even_MAG-GUT91964.fa</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>84273.76226096605</v>
+        <v>79421.24521937263</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -6679,11 +6679,11 @@
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80718.fa</t>
+          <t>even_MAG-GUT91970.fa</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>41580.7779055732</v>
+        <v>77982.45065896341</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -6699,11 +6699,11 @@
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80771.fa</t>
+          <t>even_MAG-GUT91971.fa</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>77624.32220483111</v>
+        <v>93784.92373714643</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -6719,11 +6719,11 @@
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80816.fa</t>
+          <t>even_MAG-GUT91990.fa</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>70657.64784040111</v>
+        <v>74773.898003272</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -6739,11 +6739,11 @@
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81679.fa</t>
+          <t>even_MAG-GUT91993.fa</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>84934.54080397343</v>
+        <v>94290.21051204251</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -6759,11 +6759,11 @@
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81926.fa</t>
+          <t>even_MAG-GUT92001.fa</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>77387.46073098571</v>
+        <v>83783.01198410311</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -6779,11 +6779,11 @@
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81946.fa</t>
+          <t>even_MAG-GUT92091.fa</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>80882.37562577522</v>
+        <v>97537.04407310049</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -6799,11 +6799,11 @@
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81987.fa</t>
+          <t>even_MAG-GUT9316.fa</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>84934.54080397343</v>
+        <v>99420.93470539208</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -6819,11 +6819,11 @@
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82039.fa</t>
+          <t>even_MAG-GUT9364.fa</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>42961.38592254018</v>
+        <v>92177.16770618882</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -6839,11 +6839,11 @@
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82105.fa</t>
+          <t>even_MAG-GUT9376.fa</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>61929.48695825794</v>
+        <v>96777.60243297416</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -6859,11 +6859,11 @@
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82160.fa</t>
+          <t>even_MAG-GUT956.fa</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>76291.18940479033</v>
+        <v>82478.5535129507</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -6879,11 +6879,11 @@
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82436.fa</t>
+          <t>even_MAG-GUT9659.fa</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>88467.91417457286</v>
+        <v>55993.40257445154</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -6891,2126 +6891,6 @@
         </is>
       </c>
       <c r="D323" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82468.fa</t>
-        </is>
-      </c>
-      <c r="B324" t="n">
-        <v>71738.13920129932</v>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82509.fa</t>
-        </is>
-      </c>
-      <c r="B325" t="n">
-        <v>66923.43651469181</v>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82562.fa</t>
-        </is>
-      </c>
-      <c r="B326" t="n">
-        <v>66923.43651469181</v>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82635.fa</t>
-        </is>
-      </c>
-      <c r="B327" t="n">
-        <v>68305.7152170472</v>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82654.fa</t>
-        </is>
-      </c>
-      <c r="B328" t="n">
-        <v>69766.61017268753</v>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82703.fa</t>
-        </is>
-      </c>
-      <c r="B329" t="n">
-        <v>63882.5706416555</v>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82738.fa</t>
-        </is>
-      </c>
-      <c r="B330" t="n">
-        <v>48670.87010689786</v>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82744.fa</t>
-        </is>
-      </c>
-      <c r="B331" t="n">
-        <v>76126.13025027036</v>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT84598.fa</t>
-        </is>
-      </c>
-      <c r="B332" t="n">
-        <v>87196.45718334118</v>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT84613.fa</t>
-        </is>
-      </c>
-      <c r="B333" t="n">
-        <v>58770.87667585809</v>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85104.fa</t>
-        </is>
-      </c>
-      <c r="B334" t="n">
-        <v>61050.65565626651</v>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT86853.fa</t>
-        </is>
-      </c>
-      <c r="B335" t="n">
-        <v>54772.95826141443</v>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT86870.fa</t>
-        </is>
-      </c>
-      <c r="B336" t="n">
-        <v>69697.46222388418</v>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT86935.fa</t>
-        </is>
-      </c>
-      <c r="B337" t="n">
-        <v>44682.25546545726</v>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT87208.fa</t>
-        </is>
-      </c>
-      <c r="B338" t="n">
-        <v>59526.88517934641</v>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT87297.fa</t>
-        </is>
-      </c>
-      <c r="B339" t="n">
-        <v>45372.97141847962</v>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT87358.fa</t>
-        </is>
-      </c>
-      <c r="B340" t="n">
-        <v>52197.20879535582</v>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT87479.fa</t>
-        </is>
-      </c>
-      <c r="B341" t="n">
-        <v>49313.74424580664</v>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT87575.fa</t>
-        </is>
-      </c>
-      <c r="B342" t="n">
-        <v>50807.5086494135</v>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT87793.fa</t>
-        </is>
-      </c>
-      <c r="B343" t="n">
-        <v>39532.07932743276</v>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT87821.fa</t>
-        </is>
-      </c>
-      <c r="B344" t="n">
-        <v>78282.93604239151</v>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT87833.fa</t>
-        </is>
-      </c>
-      <c r="B345" t="n">
-        <v>50314.49400158471</v>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT87873.fa</t>
-        </is>
-      </c>
-      <c r="B346" t="n">
-        <v>83243.32620619795</v>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT88081.fa</t>
-        </is>
-      </c>
-      <c r="B347" t="n">
-        <v>57432.18593665579</v>
-      </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT88255.fa</t>
-        </is>
-      </c>
-      <c r="B348" t="n">
-        <v>52351.02671326195</v>
-      </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT88263.fa</t>
-        </is>
-      </c>
-      <c r="B349" t="n">
-        <v>50224.71577492116</v>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT88291.fa</t>
-        </is>
-      </c>
-      <c r="B350" t="n">
-        <v>58957.01196911698</v>
-      </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT88563.fa</t>
-        </is>
-      </c>
-      <c r="B351" t="n">
-        <v>53470.06956381872</v>
-      </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT88626.fa</t>
-        </is>
-      </c>
-      <c r="B352" t="n">
-        <v>39964.69422058511</v>
-      </c>
-      <c r="C352" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT88680.fa</t>
-        </is>
-      </c>
-      <c r="B353" t="n">
-        <v>56636.27019292575</v>
-      </c>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT88854.fa</t>
-        </is>
-      </c>
-      <c r="B354" t="n">
-        <v>42444.53666109921</v>
-      </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT88891.fa</t>
-        </is>
-      </c>
-      <c r="B355" t="n">
-        <v>40433.33631884564</v>
-      </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT88995.fa</t>
-        </is>
-      </c>
-      <c r="B356" t="n">
-        <v>57432.18593665579</v>
-      </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89009.fa</t>
-        </is>
-      </c>
-      <c r="B357" t="n">
-        <v>47042.25273655781</v>
-      </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89180.fa</t>
-        </is>
-      </c>
-      <c r="B358" t="n">
-        <v>61346.33173357756</v>
-      </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89205.fa</t>
-        </is>
-      </c>
-      <c r="B359" t="n">
-        <v>82792.60931118943</v>
-      </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89206.fa</t>
-        </is>
-      </c>
-      <c r="B360" t="n">
-        <v>61346.33173357756</v>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89239.fa</t>
-        </is>
-      </c>
-      <c r="B361" t="n">
-        <v>36794.07296304278</v>
-      </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89279.fa</t>
-        </is>
-      </c>
-      <c r="B362" t="n">
-        <v>60932.87629342044</v>
-      </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89290.fa</t>
-        </is>
-      </c>
-      <c r="B363" t="n">
-        <v>61346.33173357756</v>
-      </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89291.fa</t>
-        </is>
-      </c>
-      <c r="B364" t="n">
-        <v>92883.98599631902</v>
-      </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89315.fa</t>
-        </is>
-      </c>
-      <c r="B365" t="n">
-        <v>64139.26256642051</v>
-      </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89318.fa</t>
-        </is>
-      </c>
-      <c r="B366" t="n">
-        <v>85824.70437646414</v>
-      </c>
-      <c r="C366" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89323.fa</t>
-        </is>
-      </c>
-      <c r="B367" t="n">
-        <v>35619.77739392121</v>
-      </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89344.fa</t>
-        </is>
-      </c>
-      <c r="B368" t="n">
-        <v>51708.19256442961</v>
-      </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89353.fa</t>
-        </is>
-      </c>
-      <c r="B369" t="n">
-        <v>61346.33173357756</v>
-      </c>
-      <c r="C369" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89356.fa</t>
-        </is>
-      </c>
-      <c r="B370" t="n">
-        <v>85824.70437646414</v>
-      </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89364.fa</t>
-        </is>
-      </c>
-      <c r="B371" t="n">
-        <v>79896.80811769197</v>
-      </c>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89416.fa</t>
-        </is>
-      </c>
-      <c r="B372" t="n">
-        <v>58541.62393694448</v>
-      </c>
-      <c r="C372" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D372" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89571.fa</t>
-        </is>
-      </c>
-      <c r="B373" t="n">
-        <v>48147.91881701296</v>
-      </c>
-      <c r="C373" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89717.fa</t>
-        </is>
-      </c>
-      <c r="B374" t="n">
-        <v>78338.39428028517</v>
-      </c>
-      <c r="C374" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89719.fa</t>
-        </is>
-      </c>
-      <c r="B375" t="n">
-        <v>61346.33173357756</v>
-      </c>
-      <c r="C375" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89868.fa</t>
-        </is>
-      </c>
-      <c r="B376" t="n">
-        <v>60184.79848813674</v>
-      </c>
-      <c r="C376" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D376" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89896.fa</t>
-        </is>
-      </c>
-      <c r="B377" t="n">
-        <v>61263.64527110213</v>
-      </c>
-      <c r="C377" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D377" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90076.fa</t>
-        </is>
-      </c>
-      <c r="B378" t="n">
-        <v>91497.36089189586</v>
-      </c>
-      <c r="C378" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90087.fa</t>
-        </is>
-      </c>
-      <c r="B379" t="n">
-        <v>60184.79848813674</v>
-      </c>
-      <c r="C379" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90108.fa</t>
-        </is>
-      </c>
-      <c r="B380" t="n">
-        <v>82284.56851013508</v>
-      </c>
-      <c r="C380" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D380" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90109.fa</t>
-        </is>
-      </c>
-      <c r="B381" t="n">
-        <v>61346.33173357756</v>
-      </c>
-      <c r="C381" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D381" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90165.fa</t>
-        </is>
-      </c>
-      <c r="B382" t="n">
-        <v>61346.33173357756</v>
-      </c>
-      <c r="C382" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D382" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90168.fa</t>
-        </is>
-      </c>
-      <c r="B383" t="n">
-        <v>83942.59179733276</v>
-      </c>
-      <c r="C383" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D383" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90190.fa</t>
-        </is>
-      </c>
-      <c r="B384" t="n">
-        <v>82792.60931118943</v>
-      </c>
-      <c r="C384" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D384" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90191.fa</t>
-        </is>
-      </c>
-      <c r="B385" t="n">
-        <v>64139.26256642051</v>
-      </c>
-      <c r="C385" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D385" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90290.fa</t>
-        </is>
-      </c>
-      <c r="B386" t="n">
-        <v>54722.05502278278</v>
-      </c>
-      <c r="C386" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D386" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90292.fa</t>
-        </is>
-      </c>
-      <c r="B387" t="n">
-        <v>96362.85159920862</v>
-      </c>
-      <c r="C387" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D387" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90323.fa</t>
-        </is>
-      </c>
-      <c r="B388" t="n">
-        <v>60184.79848813674</v>
-      </c>
-      <c r="C388" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D388" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90367.fa</t>
-        </is>
-      </c>
-      <c r="B389" t="n">
-        <v>83991.97396420337</v>
-      </c>
-      <c r="C389" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D389" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90479.fa</t>
-        </is>
-      </c>
-      <c r="B390" t="n">
-        <v>55365.83646989292</v>
-      </c>
-      <c r="C390" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D390" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90502.fa</t>
-        </is>
-      </c>
-      <c r="B391" t="n">
-        <v>48147.91881701296</v>
-      </c>
-      <c r="C391" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D391" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90506.fa</t>
-        </is>
-      </c>
-      <c r="B392" t="n">
-        <v>61346.33173357756</v>
-      </c>
-      <c r="C392" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D392" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90600.fa</t>
-        </is>
-      </c>
-      <c r="B393" t="n">
-        <v>60757.48014228143</v>
-      </c>
-      <c r="C393" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D393" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90634.fa</t>
-        </is>
-      </c>
-      <c r="B394" t="n">
-        <v>76491.30288642002</v>
-      </c>
-      <c r="C394" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D394" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90686.fa</t>
-        </is>
-      </c>
-      <c r="B395" t="n">
-        <v>53278.1318839646</v>
-      </c>
-      <c r="C395" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D395" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90699.fa</t>
-        </is>
-      </c>
-      <c r="B396" t="n">
-        <v>60184.79848813674</v>
-      </c>
-      <c r="C396" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D396" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90947.fa</t>
-        </is>
-      </c>
-      <c r="B397" t="n">
-        <v>85824.70437646414</v>
-      </c>
-      <c r="C397" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D397" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90976.fa</t>
-        </is>
-      </c>
-      <c r="B398" t="n">
-        <v>61346.33173357756</v>
-      </c>
-      <c r="C398" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D398" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90977.fa</t>
-        </is>
-      </c>
-      <c r="B399" t="n">
-        <v>85824.70437646414</v>
-      </c>
-      <c r="C399" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D399" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91033.fa</t>
-        </is>
-      </c>
-      <c r="B400" t="n">
-        <v>90698.77918776635</v>
-      </c>
-      <c r="C400" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D400" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91042.fa</t>
-        </is>
-      </c>
-      <c r="B401" t="n">
-        <v>60184.79848813674</v>
-      </c>
-      <c r="C401" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D401" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91117.fa</t>
-        </is>
-      </c>
-      <c r="B402" t="n">
-        <v>85824.70437646414</v>
-      </c>
-      <c r="C402" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D402" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91118.fa</t>
-        </is>
-      </c>
-      <c r="B403" t="n">
-        <v>61346.33173357756</v>
-      </c>
-      <c r="C403" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D403" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91136.fa</t>
-        </is>
-      </c>
-      <c r="B404" t="n">
-        <v>85985.41939423655</v>
-      </c>
-      <c r="C404" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D404" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91137.fa</t>
-        </is>
-      </c>
-      <c r="B405" t="n">
-        <v>61346.33173357756</v>
-      </c>
-      <c r="C405" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D405" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91276.fa</t>
-        </is>
-      </c>
-      <c r="B406" t="n">
-        <v>67559.59073513668</v>
-      </c>
-      <c r="C406" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D406" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91278.fa</t>
-        </is>
-      </c>
-      <c r="B407" t="n">
-        <v>72743.92966486733</v>
-      </c>
-      <c r="C407" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D407" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91345.fa</t>
-        </is>
-      </c>
-      <c r="B408" t="n">
-        <v>83672.352667571</v>
-      </c>
-      <c r="C408" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D408" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91364.fa</t>
-        </is>
-      </c>
-      <c r="B409" t="n">
-        <v>83402.30182382207</v>
-      </c>
-      <c r="C409" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D409" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91383.fa</t>
-        </is>
-      </c>
-      <c r="B410" t="n">
-        <v>66040.18241534985</v>
-      </c>
-      <c r="C410" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D410" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91475.fa</t>
-        </is>
-      </c>
-      <c r="B411" t="n">
-        <v>84374.62492048189</v>
-      </c>
-      <c r="C411" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D411" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91600.fa</t>
-        </is>
-      </c>
-      <c r="B412" t="n">
-        <v>87831.17965002434</v>
-      </c>
-      <c r="C412" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D412" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91603.fa</t>
-        </is>
-      </c>
-      <c r="B413" t="n">
-        <v>86709.97342202716</v>
-      </c>
-      <c r="C413" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D413" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91866.fa</t>
-        </is>
-      </c>
-      <c r="B414" t="n">
-        <v>67780.73761036973</v>
-      </c>
-      <c r="C414" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D414" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91873.fa</t>
-        </is>
-      </c>
-      <c r="B415" t="n">
-        <v>96241.50571646813</v>
-      </c>
-      <c r="C415" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D415" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91938.fa</t>
-        </is>
-      </c>
-      <c r="B416" t="n">
-        <v>81914.44542089054</v>
-      </c>
-      <c r="C416" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D416" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91964.fa</t>
-        </is>
-      </c>
-      <c r="B417" t="n">
-        <v>79421.24521937263</v>
-      </c>
-      <c r="C417" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D417" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91970.fa</t>
-        </is>
-      </c>
-      <c r="B418" t="n">
-        <v>77982.45065896341</v>
-      </c>
-      <c r="C418" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D418" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91971.fa</t>
-        </is>
-      </c>
-      <c r="B419" t="n">
-        <v>93784.92373714643</v>
-      </c>
-      <c r="C419" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D419" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91990.fa</t>
-        </is>
-      </c>
-      <c r="B420" t="n">
-        <v>74773.898003272</v>
-      </c>
-      <c r="C420" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D420" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91993.fa</t>
-        </is>
-      </c>
-      <c r="B421" t="n">
-        <v>94290.21051204251</v>
-      </c>
-      <c r="C421" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D421" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT92001.fa</t>
-        </is>
-      </c>
-      <c r="B422" t="n">
-        <v>83783.01198410311</v>
-      </c>
-      <c r="C422" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D422" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT92091.fa</t>
-        </is>
-      </c>
-      <c r="B423" t="n">
-        <v>97537.04407310049</v>
-      </c>
-      <c r="C423" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D423" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9303.fa</t>
-        </is>
-      </c>
-      <c r="B424" t="n">
-        <v>92459.43593189229</v>
-      </c>
-      <c r="C424" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D424" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9316.fa</t>
-        </is>
-      </c>
-      <c r="B425" t="n">
-        <v>99420.93470539208</v>
-      </c>
-      <c r="C425" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D425" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9364.fa</t>
-        </is>
-      </c>
-      <c r="B426" t="n">
-        <v>92177.16770618882</v>
-      </c>
-      <c r="C426" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D426" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9376.fa</t>
-        </is>
-      </c>
-      <c r="B427" t="n">
-        <v>96777.60243297416</v>
-      </c>
-      <c r="C427" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D427" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT956.fa</t>
-        </is>
-      </c>
-      <c r="B428" t="n">
-        <v>82478.5535129507</v>
-      </c>
-      <c r="C428" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D428" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9659.fa</t>
-        </is>
-      </c>
-      <c r="B429" t="n">
-        <v>55993.40257445154</v>
-      </c>
-      <c r="C429" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="D429" t="inlineStr">
         <is>
           <t>c__Negativicutes</t>
         </is>
